--- a/WSL mens championship tour 2023.xlsx
+++ b/WSL mens championship tour 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucilleharrison/Desktop/CODE1161/1161 data analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucilleharrison/Desktop/CODE1161/Data-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA81A73-5A6C-6B41-BF30-D04B966CBF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566E82C-AA40-674D-A168-8F1033CE96AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{F81C69F1-BC73-634A-81BF-7D8680566905}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="67">
   <si>
     <t>Points from each tour event</t>
   </si>
@@ -89,9 +89,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t> 1</t>
-  </si>
-  <si>
     <t>Filipe Toledo</t>
   </si>
   <si>
@@ -122,13 +119,7 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t> 3</t>
-  </si>
-  <si>
     <t>Italo Ferreira</t>
-  </si>
-  <si>
-    <t> 2</t>
   </si>
   <si>
     <t>Leonardo Fioravanti</t>
@@ -389,18 +380,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,7 +710,7 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,8 +719,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>69</v>
+      <c r="A1" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -783,35 +774,35 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9">
-        <v>1330</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="14">
+        <v>1330</v>
+      </c>
+      <c r="F3" s="9">
         <v>7800</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>4745</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>4745</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>7800</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>10000</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>7800</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -823,59 +814,57 @@
       <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>42890</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
         <v>4745</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>10000</v>
       </c>
-      <c r="G5" s="9">
-        <v>1330</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="14">
+        <v>1330</v>
+      </c>
+      <c r="H5" s="9">
         <v>6085</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>4745</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>6085</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>10000</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -887,59 +876,57 @@
       <c r="N5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>41660</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9">
         <v>6085</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>6085</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>10000</v>
       </c>
-      <c r="H7" s="9">
-        <v>3320</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="14">
+        <v>3320</v>
+      </c>
+      <c r="I7" s="9">
         <v>6085</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>4745</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>3320</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -951,59 +938,57 @@
       <c r="N7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>36320</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1330</v>
-      </c>
-      <c r="F9" s="10">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1330</v>
+      </c>
+      <c r="F9" s="9">
         <v>4745</v>
       </c>
-      <c r="G9" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H9" s="9">
         <v>10000</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>4745</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>6085</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>3320</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -1015,59 +1000,57 @@
       <c r="N9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>32215</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F11" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G11" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3320</v>
-      </c>
-      <c r="I11" s="10">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H11" s="14">
+        <v>3320</v>
+      </c>
+      <c r="I11" s="9">
         <v>10000</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>4745</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>3320</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -1079,64 +1062,62 @@
       <c r="N11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>28025</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9">
         <v>10000</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>6085</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>7800</v>
       </c>
-      <c r="H14" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="H14" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I14" s="11">
         <v>265</v>
       </c>
-      <c r="J14" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="J14" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K14" s="9">
         <v>1330</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -1148,59 +1129,57 @@
       <c r="N14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>27875</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="10"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="13">
         <v>7</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="10">
+        <v>25</v>
+      </c>
+      <c r="E16" s="9">
         <v>4745</v>
       </c>
-      <c r="F16" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1330</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="F16" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1330</v>
+      </c>
+      <c r="H16" s="9">
         <v>6085</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>6085</v>
       </c>
-      <c r="J16" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="J16" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K16" s="9">
         <v>1330</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -1212,59 +1191,57 @@
       <c r="N16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>24885</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="13">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1330</v>
-      </c>
-      <c r="I18" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J18" s="10">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1330</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J18" s="9">
         <v>7800</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>4745</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -1276,59 +1253,57 @@
       <c r="N18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>23835</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="13">
         <v>8</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9">
         <v>7800</v>
       </c>
-      <c r="F20" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1330</v>
-      </c>
-      <c r="I20" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="F20" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1330</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J20" s="9">
         <v>4745</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>3320</v>
       </c>
       <c r="L20" s="8" t="s">
@@ -1340,59 +1315,57 @@
       <c r="N20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>23835</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="13">
         <v>10</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F22" s="14">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F22" s="12">
         <v>265</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>4745</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>4745</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>4745</v>
       </c>
-      <c r="J22" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K22" s="10">
+      <c r="J22" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K22" s="9">
         <v>4745</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -1404,59 +1377,57 @@
       <c r="N22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <v>23630</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="10"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="13">
         <v>11</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1330</v>
-      </c>
-      <c r="G24" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H24" s="10">
+        <v>31</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1330</v>
+      </c>
+      <c r="G24" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H24" s="9">
         <v>7800</v>
       </c>
-      <c r="I24" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J24" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K24" s="10">
+      <c r="I24" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K24" s="9">
         <v>1330</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -1468,59 +1439,57 @@
       <c r="N24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <v>22410</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="10"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="13">
         <v>12</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1330</v>
-      </c>
-      <c r="G26" s="10">
+        <v>32</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1330</v>
+      </c>
+      <c r="G26" s="9">
         <v>6085</v>
       </c>
-      <c r="H26" s="10">
-        <v>3320</v>
-      </c>
-      <c r="I26" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="H26" s="9">
+        <v>3320</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J26" s="9">
         <v>4745</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>1330</v>
       </c>
       <c r="L26" s="8" t="s">
@@ -1532,59 +1501,57 @@
       <c r="N26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="9">
         <v>22120</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="13">
         <v>13</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="10">
+        <v>33</v>
+      </c>
+      <c r="E28" s="9">
         <v>6085</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>4745</v>
       </c>
-      <c r="G28" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J28" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K28" s="10">
+      <c r="G28" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K28" s="9">
         <v>3320</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -1596,59 +1563,57 @@
       <c r="N28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <v>20130</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>14</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A30" s="13">
+        <v>14</v>
+      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="8"/>
       <c r="D30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="14">
+        <v>34</v>
+      </c>
+      <c r="E30" s="12">
         <v>265</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>4745</v>
       </c>
-      <c r="G30" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G30" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H30" s="9">
         <v>4745</v>
       </c>
-      <c r="I30" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J30" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K30" s="10">
+      <c r="I30" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J30" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K30" s="9">
         <v>1330</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -1660,59 +1625,57 @@
       <c r="N30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <v>18790</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="8"/>
       <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G32" s="10">
+        <v>36</v>
+      </c>
+      <c r="E32" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G32" s="9">
         <v>6085</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>265</v>
       </c>
-      <c r="I32" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J32" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K32" s="10">
+      <c r="I32" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K32" s="9">
         <v>3320</v>
       </c>
       <c r="L32" s="8" t="s">
@@ -1724,59 +1687,57 @@
       <c r="N32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <v>18705</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="8"/>
       <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="10"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="13">
         <v>16</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="8"/>
       <c r="D34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="10">
+        <v>37</v>
+      </c>
+      <c r="E34" s="9">
         <v>4745</v>
       </c>
-      <c r="F34" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1330</v>
-      </c>
-      <c r="I34" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K34" s="10">
+      <c r="F34" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1330</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K34" s="9">
         <v>6085</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -1788,59 +1749,57 @@
       <c r="N34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <v>18140</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="8"/>
       <c r="D35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="10"/>
+      <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="13">
         <v>17</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B36" s="13"/>
       <c r="C36" s="8"/>
       <c r="D36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F36" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H36" s="10">
-        <v>3320</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J36" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K36" s="10">
+        <v>38</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H36" s="9">
+        <v>3320</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J36" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K36" s="9">
         <v>4745</v>
       </c>
       <c r="L36" s="8" t="s">
@@ -1852,59 +1811,57 @@
       <c r="N36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="9">
         <v>17365</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="8"/>
       <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="10"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="13">
         <v>17</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="B38" s="15"/>
       <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="10">
+        <v>40</v>
+      </c>
+      <c r="E38" s="9">
         <v>4745</v>
       </c>
-      <c r="F38" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1330</v>
-      </c>
-      <c r="H38" s="10">
-        <v>3320</v>
-      </c>
-      <c r="I38" s="10">
-        <v>3320</v>
-      </c>
-      <c r="J38" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K38" s="10">
+      <c r="F38" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1330</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3320</v>
+      </c>
+      <c r="I38" s="9">
+        <v>3320</v>
+      </c>
+      <c r="J38" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K38" s="9">
         <v>1330</v>
       </c>
       <c r="L38" s="8" t="s">
@@ -1916,59 +1873,57 @@
       <c r="N38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="9">
         <v>17365</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="8"/>
       <c r="D39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="10"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="13">
         <v>19</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B40" s="15"/>
       <c r="C40" s="8"/>
       <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G40" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1330</v>
-      </c>
-      <c r="I40" s="10">
+        <v>41</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G40" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1330</v>
+      </c>
+      <c r="I40" s="9">
         <v>4745</v>
       </c>
-      <c r="J40" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K40" s="10">
+      <c r="J40" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K40" s="9">
         <v>4745</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -1980,59 +1935,57 @@
       <c r="N40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="9">
         <v>16800</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8"/>
       <c r="D41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="10"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="13">
         <v>20</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B42" s="16"/>
       <c r="C42" s="8"/>
       <c r="D42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F42" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G42" s="10">
-        <v>3320</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I42" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J42" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K42" s="10">
+        <v>42</v>
+      </c>
+      <c r="E42" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3320</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K42" s="9">
         <v>6085</v>
       </c>
       <c r="L42" s="8" t="s">
@@ -2044,59 +1997,57 @@
       <c r="N42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="9">
         <v>16715</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="8"/>
       <c r="D43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="10"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="13">
         <v>21</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B44" s="15"/>
       <c r="C44" s="8"/>
       <c r="D44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F44" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G44" s="10">
+        <v>43</v>
+      </c>
+      <c r="E44" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G44" s="9">
         <v>4745</v>
       </c>
       <c r="H44" s="8">
         <v>265</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="12">
         <v>265</v>
       </c>
-      <c r="J44" s="10">
-        <v>1330</v>
-      </c>
-      <c r="K44" s="10">
+      <c r="J44" s="9">
+        <v>1330</v>
+      </c>
+      <c r="K44" s="9">
         <v>3320</v>
       </c>
       <c r="L44" s="8" t="s">
@@ -2108,59 +2059,57 @@
       <c r="N44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O44" s="9">
         <v>14310</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="10"/>
+      <c r="O45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="13">
         <v>22</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B46" s="16"/>
       <c r="C46" s="8"/>
       <c r="D46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F46" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H46" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I46" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J46" s="15">
+        <v>45</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F46" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I46" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J46" s="10">
         <v>265</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>3320</v>
       </c>
       <c r="L46" s="8" t="s">
@@ -2172,59 +2121,57 @@
       <c r="N46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="9">
         <v>12885</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="8"/>
       <c r="D47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="10"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="13">
         <v>23</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="B48" s="15"/>
       <c r="C48" s="8"/>
       <c r="D48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F48" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G48" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H48" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J48" s="10">
-        <v>3320</v>
-      </c>
-      <c r="K48" s="10">
+        <v>46</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F48" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J48" s="9">
+        <v>3320</v>
+      </c>
+      <c r="K48" s="9">
         <v>1330</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -2236,68 +2183,68 @@
       <c r="N48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O48" s="10">
+      <c r="O48" s="9">
         <v>11960</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="10"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>50</v>
+      <c r="A50" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="13">
         <v>24</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G51" s="10">
+        <v>48</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G51" s="9">
         <v>4745</v>
       </c>
-      <c r="H51" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I51" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="14" t="s">
+      <c r="H51" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>14</v>
@@ -2305,59 +2252,59 @@
       <c r="N51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O51" s="10">
+      <c r="O51" s="9">
         <v>8735</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="10"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="13">
         <v>24</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F53" s="10">
+        <v>50</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F53" s="9">
         <v>4745</v>
       </c>
-      <c r="G53" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H53" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I53" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="14" t="s">
+      <c r="G53" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="8" t="s">
@@ -2369,59 +2316,59 @@
       <c r="N53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O53" s="10">
+      <c r="O53" s="9">
         <v>8735</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="10"/>
+      <c r="O54" s="9"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="13">
         <v>24</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F55" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G55" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H55" s="10">
+        <v>51</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H55" s="9">
         <v>4745</v>
       </c>
-      <c r="I55" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="14" t="s">
+      <c r="I55" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -2433,59 +2380,59 @@
       <c r="N55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O55" s="10">
+      <c r="O55" s="9">
         <v>8735</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="8"/>
       <c r="D56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="10"/>
+      <c r="O56" s="9"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="13">
         <v>27</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="10">
-        <v>3320</v>
-      </c>
-      <c r="F57" s="10">
-        <v>3320</v>
-      </c>
-      <c r="G57" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H57" s="15">
+        <v>52</v>
+      </c>
+      <c r="E57" s="9">
+        <v>3320</v>
+      </c>
+      <c r="F57" s="9">
+        <v>3320</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H57" s="10">
         <v>265</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="11">
         <v>265</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="J57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L57" s="8" t="s">
@@ -2497,59 +2444,59 @@
       <c r="N57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O57" s="10">
+      <c r="O57" s="9">
         <v>8235</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="8"/>
       <c r="D58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="10"/>
+      <c r="O58" s="9"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="13">
         <v>28</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F59" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G59" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H59" s="10">
-        <v>3320</v>
-      </c>
-      <c r="I59" s="14">
+        <v>53</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H59" s="9">
+        <v>3320</v>
+      </c>
+      <c r="I59" s="12">
         <v>265</v>
       </c>
-      <c r="J59" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="14" t="s">
+      <c r="J59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L59" s="8" t="s">
@@ -2561,59 +2508,59 @@
       <c r="N59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="9">
         <v>7310</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="8"/>
       <c r="D60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="10"/>
+      <c r="O60" s="9"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="13">
         <v>29</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="10">
+        <v>54</v>
+      </c>
+      <c r="E61" s="9">
         <v>1330</v>
       </c>
       <c r="F61" s="8">
         <v>265</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="12">
         <v>265</v>
       </c>
-      <c r="H61" s="10">
-        <v>3320</v>
-      </c>
-      <c r="I61" s="10">
-        <v>1330</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="14" t="s">
+      <c r="H61" s="9">
+        <v>3320</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1330</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L61" s="8" t="s">
@@ -2625,59 +2572,59 @@
       <c r="N61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O61" s="10">
+      <c r="O61" s="9">
         <v>6245</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="8"/>
       <c r="D62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="10"/>
+      <c r="O62" s="9"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="13">
         <v>30</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F63" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G63" s="10">
-        <v>1330</v>
-      </c>
-      <c r="H63" s="14">
+        <v>56</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1330</v>
+      </c>
+      <c r="H63" s="12">
         <v>265</v>
       </c>
-      <c r="I63" s="10">
-        <v>1330</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="14" t="s">
+      <c r="I63" s="9">
+        <v>1330</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L63" s="8" t="s">
@@ -2689,59 +2636,59 @@
       <c r="N63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O63" s="10">
+      <c r="O63" s="9">
         <v>5320</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="8"/>
       <c r="D64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
-      <c r="O64" s="10"/>
+      <c r="O64" s="9"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="13">
         <v>30</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F65" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G65" s="14">
+        <v>57</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1330</v>
+      </c>
+      <c r="G65" s="12">
         <v>265</v>
       </c>
-      <c r="H65" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I65" s="10">
-        <v>1330</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="14" t="s">
+      <c r="H65" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1330</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L65" s="8" t="s">
@@ -2753,59 +2700,59 @@
       <c r="N65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O65" s="10">
+      <c r="O65" s="9">
         <v>5320</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="8"/>
       <c r="D66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="10"/>
+      <c r="O66" s="9"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="13">
         <v>32</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="10">
+        <v>58</v>
+      </c>
+      <c r="E67" s="9">
         <v>1330</v>
       </c>
       <c r="F67" s="8">
         <v>265</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="12">
         <v>265</v>
       </c>
-      <c r="H67" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I67" s="10">
-        <v>1330</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="14" t="s">
+      <c r="H67" s="9">
+        <v>1330</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1330</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L67" s="8" t="s">
@@ -2817,59 +2764,59 @@
       <c r="N67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O67" s="9">
         <v>4255</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="8"/>
       <c r="D68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="10"/>
+      <c r="O68" s="9"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="13">
         <v>32</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1330</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="10">
-        <v>1330</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="14" t="s">
+      <c r="I69" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L69" s="8" t="s">
@@ -2881,59 +2828,59 @@
       <c r="N69" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O69" s="10">
+      <c r="O69" s="9">
         <v>4255</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="8"/>
       <c r="D70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="10"/>
+      <c r="O70" s="9"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="A71" s="13">
         <v>34</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E71" s="8">
         <v>265</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="10">
         <v>265</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="10">
         <v>265</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="10">
         <v>265</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="11">
         <v>265</v>
       </c>
-      <c r="J71" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="14" t="s">
+      <c r="J71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L71" s="8" t="s">
@@ -2945,59 +2892,59 @@
       <c r="N71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O71" s="10">
+      <c r="O71" s="9">
         <v>1060</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="8"/>
       <c r="D72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72" s="8"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="10"/>
+      <c r="O72" s="9"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="A73" s="13">
         <v>34</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" s="15">
+        <v>64</v>
+      </c>
+      <c r="E73" s="10">
         <v>265</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="10">
         <v>265</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="10">
         <v>265</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="10">
         <v>265</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="11">
         <v>265</v>
       </c>
-      <c r="J73" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" s="14" t="s">
+      <c r="J73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="8" t="s">
@@ -3009,45 +2956,483 @@
       <c r="N73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O73" s="10">
+      <c r="O73" s="9">
         <v>1060</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="8"/>
       <c r="D74" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="10"/>
+      <c r="O74" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="490">
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
     <mergeCell ref="J71:J72"/>
     <mergeCell ref="K71:K72"/>
     <mergeCell ref="L71:L72"/>
@@ -3072,458 +3457,20 @@
     <mergeCell ref="M69:M70"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.worldsurfleague.com/athletes/tour/mct?regionId=1&amp;seasonNumber=1&amp;sort=rank&amp;sortOrder=desc&amp;year=2023" xr:uid="{A8F14C52-D639-F844-9AB8-C54A77656594}"/>
